--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_summary_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_summary_Lineal_No_Estacionario_ARIMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Modelo</t>
   </si>
@@ -31,21 +31,21 @@
     <t>ECRPS_Mejor</t>
   </si>
   <si>
+    <t>AREPD</t>
+  </si>
+  <si>
+    <t>AV-MCPS</t>
+  </si>
+  <si>
+    <t>Block Bootstrapping</t>
+  </si>
+  <si>
+    <t>DeepAR</t>
+  </si>
+  <si>
     <t>EnCQR-LSTM</t>
   </si>
   <si>
-    <t>Block Bootstrapping</t>
-  </si>
-  <si>
-    <t>AV-MCPS</t>
-  </si>
-  <si>
-    <t>AREPD</t>
-  </si>
-  <si>
-    <t>DeepAR</t>
-  </si>
-  <si>
     <t>LSPM</t>
   </si>
   <si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>Sieve Bootstrap</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1/10</t>
   </si>
   <si>
     <t>0/10</t>
@@ -453,13 +447,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>51.2</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>8.267570245745368</v>
+        <v>15.95943680838795</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -467,16 +461,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
       <c r="E3">
-        <v>19.34740349797205</v>
+        <v>2.901025799779622</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -484,16 +478,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4">
-        <v>2.901025799779622</v>
+        <v>19.34740349797205</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -501,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -510,7 +504,7 @@
         <v>100</v>
       </c>
       <c r="E5">
-        <v>15.95943680838795</v>
+        <v>2.936689824127809</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -518,7 +512,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -527,7 +521,7 @@
         <v>100</v>
       </c>
       <c r="E6">
-        <v>2.936689824127809</v>
+        <v>8.267570245745368</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -535,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -552,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -569,7 +563,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -586,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>0</v>
